--- a/biology/Botanique/Salade_scandinave/Salade_scandinave.xlsx
+++ b/biology/Botanique/Salade_scandinave/Salade_scandinave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La salade scandinave ou salade nordique est une recette de cuisine de salade composée, à base d'assortiment de poissons typiques des cuisines traditionnelles scandinave-nordiques[1],[2],[3].
+La salade scandinave ou salade nordique est une recette de cuisine de salade composée, à base d'assortiment de poissons typiques des cuisines traditionnelles scandinave-nordiques.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce type de salade composée, à base de salade ou de pomme de terre, est généralement préparée avec des assortiments de saumon, saumon fumé, truite, hareng, hareng saur, haddock, thon et crevettes de Scandinavie et des pays nordiques, ainsi que d'œuf dur, oignon, cornichon, aneth, vinaigrette et citron[4],[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce type de salade composée, à base de salade ou de pomme de terre, est généralement préparée avec des assortiments de saumon, saumon fumé, truite, hareng, hareng saur, haddock, thon et crevettes de Scandinavie et des pays nordiques, ainsi que d'œuf dur, oignon, cornichon, aneth, vinaigrette et citron.
 	Quelques variantes
 			Salade californienne, de la cuisine californienne.
 			Salade fécampoise, de la cuisine normande.
